--- a/biology/Botanique/Greigia/Greigia.xlsx
+++ b/biology/Botanique/Greigia/Greigia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Greigia est un genre de plantes de la famille des Bromeliaceae que l'on rencontre dans les régions montagneuses depuis le Mexique jusqu'au Chili.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom du major général Samuel Alexeivich Greig, président de la Société d'Horticulture russe en 1865.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a la particularité chez les Broméliacées de ne pas mourir après la floraison mais au contraire de refleurir sur la même tige.
 </t>
@@ -573,7 +589,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Greigia alborosea (Grisebach) Mez
